--- a/data/long_bre/P30-Edad-long_bre.xlsx
+++ b/data/long_bre/P30-Edad-long_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,10 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,12 +540,16 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -551,12 +566,32 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -567,6 +602,10 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -576,27 +615,47 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-5,21</t>
+          <t>-10,27</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,17</t>
+          <t>-3,4</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-23,03%</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-9,49%</t>
+          <t>10,64</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-37,95%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-10,18%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>6,24%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>45,02%</t>
         </is>
       </c>
     </row>
@@ -609,22 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,93; 6,56</t>
+          <t>-25,52; 1,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,79; 10,53</t>
+          <t>-16,98; 10,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-58,06; 44,8</t>
+          <t>-14,28; 15,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-39,97; 40,4</t>
+          <t>-7,89; 28,6</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-67,26; 14,19</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-40,37; 40,26</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-49,53; 130,85</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-23,41; 219,68</t>
         </is>
       </c>
     </row>
@@ -632,27 +711,47 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,08</t>
+          <t>9,44</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
+          <t>-10,01</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,23%</t>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>22,19%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-1,3%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-17,94%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0,24%</t>
         </is>
       </c>
     </row>
@@ -665,22 +764,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 23,22</t>
+          <t>-5,31; 24,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-16,07; 14,31</t>
+          <t>-14,78; 13,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-14,93; 66,63</t>
+          <t>-24,74; 9,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-28,63; 38,47</t>
+          <t>-23,2; 19,45</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-10,75; 74,86</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-25,9; 35,57</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-39,39; 19,23</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-43,3; 65,11</t>
         </is>
       </c>
     </row>
@@ -688,27 +807,47 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,87</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,22</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,8%</t>
+          <t>8,78</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>21,93%</t>
+          <t>-10,74</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2,74%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>20,2%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>35,71%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-30,15%</t>
         </is>
       </c>
     </row>
@@ -721,54 +860,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,25; 12,32</t>
+          <t>-15,04; 14,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 16,47</t>
+          <t>-7,85; 14,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-39,9; 57,89</t>
+          <t>-7,09; 23,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-27,85; 138,13</t>
+          <t>-32,37; 10,13</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-38,65; 65,74</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-30,47; 113,73</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-20,65; 173,04</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-66,72; 54,91</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-7,74</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,17</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-30,76%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>28,47%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -781,50 +956,94 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-21,49; 3,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 16,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-63,89; 23,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-19,41; 103,68</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>-8,63</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,32</t>
+          <t>5,64</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>-10,08</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>13,7</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-32,93%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>26,44%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-28,73%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>65,4%</t>
         </is>
       </c>
     </row>
@@ -837,22 +1056,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,42; 16,84</t>
+          <t>-27,87; 2,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,19; 15,4</t>
+          <t>-4,74; 16,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-24,35; 43,56</t>
+          <t>-39,29; 4,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-18,8; 37,3</t>
+          <t>-7,52; 30,8</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-66,99; 16,86</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-17,6; 102,43</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-68,13; 20,68</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-26,46; 312,51</t>
         </is>
       </c>
     </row>
@@ -860,27 +1099,47 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,41</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-9,48</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>26,57%</t>
+          <t>17,56</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-33,15%</t>
+          <t>2,91</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>5,38%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>7,55%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>58,44%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>8,14%</t>
         </is>
       </c>
     </row>
@@ -893,54 +1152,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-10,92; 20,77</t>
+          <t>-12,25; 20,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-20,34; 0,32</t>
+          <t>-11,63; 16,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-31,76; 108,5</t>
+          <t>3,96; 35,63</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-57,99; 1,81</t>
+          <t>-19,34; 23,55</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-21,79; 57,93</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-20,83; 40,87</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>8,96; 181,12</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-35,1; 110,2</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-6,91</t>
+          <t>6,18</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>-9,41</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-28,18%</t>
+          <t>-7,48</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>-16,61</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>21,86%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>-32,73%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-21,45%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-38,39%</t>
         </is>
       </c>
     </row>
@@ -953,22 +1248,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-15,39; 2,11</t>
+          <t>-15,83; 19,02</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 10,63</t>
+          <t>-19,45; 2,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-51,66; 10,86</t>
+          <t>-25,06; 9,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-23,15; 64,94</t>
+          <t>-41,97; 6,93</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-36,96; 101,26</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-55,23; 10,62</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-52,25; 37,34</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-68,96; 32,58</t>
         </is>
       </c>
     </row>
@@ -976,27 +1291,47 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>11,58</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-1,58</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>25,52%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-2,87%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1009,50 +1344,94 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 22,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-12,23; 8,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 59,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-19,39; 17,38</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-4,67</t>
+          <t>-5,12</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-15,53%</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-3,27%</t>
+          <t>-1,07</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-22,44%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>10,75%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-8,38%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-4,08%</t>
         </is>
       </c>
     </row>
@@ -1065,54 +1444,90 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-15,54; 5,31</t>
+          <t>-14,52; 3,05</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 6,71</t>
+          <t>-5,17; 10,76</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-41,67; 25,51</t>
+          <t>-11,47; 6,68</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-35,72; 36,84</t>
+          <t>-12,4; 11,98</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-49,75; 18,35</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-19,84; 64,27</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-34,61; 33,33</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-38,46; 64,42</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-12,12</t>
+          <t>10,66</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-1,61</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-43,89%</t>
+          <t>8,42</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-7,64%</t>
+          <t>6,24</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>23,08%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-3,38%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>18,93%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>14,12%</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1540,42 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-22,01; -4,45</t>
+          <t>-1,87; 21,68</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-11,46; 4,84</t>
+          <t>-12,98; 7,41</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-65,94; -16,32</t>
+          <t>-3,13; 18,0</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-40,36; 29,34</t>
+          <t>-7,56; 19,84</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-4,12; 56,17</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-20,59; 15,61</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-6,28; 46,83</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-14,84; 53,93</t>
         </is>
       </c>
     </row>
@@ -1148,27 +1583,47 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>11,99</t>
+          <t>-5,54</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>3,27</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>25,01%</t>
+          <t>-6,2</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>-5,17</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>-17,85%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>-2,1%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-21,27%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-17,51%</t>
         </is>
       </c>
     </row>
@@ -1181,22 +1636,42 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>1,98; 22,61</t>
+          <t>-16,58; 4,45</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 12,42</t>
+          <t>-8,49; 7,83</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3,72; 55,32</t>
+          <t>-16,51; 3,63</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-9,54; 25,5</t>
+          <t>-18,31; 7,44</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>-43,42; 18,7</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>-30,47; 44,32</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-46,22; 16,28</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-50,29; 35,44</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1679,47 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-1,66</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-7,09%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1237,54 +1732,94 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 8,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 5,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-27,71; 41,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-31,4; 28,62</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-1,97</t>
+          <t>-12,72</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-10,42%</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>3,22</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>-45,95%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>-7,17%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>5,02%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>13,8%</t>
         </is>
       </c>
     </row>
@@ -1297,22 +1832,42 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-10,77; 7,15</t>
+          <t>-23,38; -4,67</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 9,96</t>
+          <t>-12,47; 5,55</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-45,62; 52,32</t>
+          <t>-8,45; 9,49</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-25,07; 67,22</t>
+          <t>-10,41; 16,62</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-66,21; -18,77</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-43,28; 34,0</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-29,85; 46,13</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-33,76; 107,03</t>
         </is>
       </c>
     </row>
@@ -1320,27 +1875,47 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>11,87</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>-3,51</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>24,77%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>7,15%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>8,38%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-6,45%</t>
         </is>
       </c>
     </row>
@@ -1353,22 +1928,42 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 15,24</t>
+          <t>1,58; 22,15</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 13,53</t>
+          <t>-5,27; 13,85</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-11,06; 27,91</t>
+          <t>-7,16; 15,8</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 25,53</t>
+          <t>-18,23; 10,94</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>2,83; 53,38</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-8,83; 27,85</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-12,84; 39,21</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-29,71; 23,67</t>
         </is>
       </c>
     </row>
@@ -1376,27 +1971,47 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>-5,05</t>
+          <t>-2,39</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-5,79%</t>
+          <t>-5,27</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>-21,54%</t>
+          <t>0,29</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>3,5%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-10,09%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>-19,12%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>1,31%</t>
         </is>
       </c>
     </row>
@@ -1409,54 +2024,90 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-10,91; 7,31</t>
+          <t>-7,53; 9,67</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-13,46; 3,53</t>
+          <t>-10,26; 5,08</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-42,29; 44,26</t>
+          <t>-19,96; 3,61</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-47,86; 19,57</t>
+          <t>-10,59; 12,48</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-25,99; 51,82</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-36,98; 26,11</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-50,67; 16,91</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-36,84; 74,98</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>-3,4</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-11,14%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>-16,15%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1469,50 +2120,94 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-11,19; 8,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-15,17; 6,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-51,98; 81,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-51,49; 41,99</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>4,47</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>7,43</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>12,43%</t>
+          <t>0,71</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>-7,92%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>10,42%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>2,24%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>2,6%</t>
         </is>
       </c>
     </row>
@@ -1525,22 +2220,42 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-10,5; 19,84</t>
+          <t>-10,98; 6,27</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 19,75</t>
+          <t>-5,89; 9,33</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-16,01; 41,08</t>
+          <t>-9,7; 12,41</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 36,62</t>
+          <t>-12,35; 13,48</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>-44,8; 44,06</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>-25,98; 61,65</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>-38,58; 69,93</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>-35,6; 68,0</t>
         </is>
       </c>
     </row>
@@ -1548,27 +2263,47 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>-2,73</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>-4,03</t>
+          <t>3,72</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-10,7%</t>
+          <t>-3,09</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>-21,01%</t>
+          <t>9,42</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>3,49%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>6,57%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>-5,17%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>20,24%</t>
         </is>
       </c>
     </row>
@@ -1581,54 +2316,90 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-16,36; 9,0</t>
+          <t>-8,95; 13,14</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-13,2; 5,35</t>
+          <t>-6,12; 13,6</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-49,44; 51,57</t>
+          <t>-15,87; 10,66</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-54,19; 42,51</t>
+          <t>-5,14; 22,51</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>-13,87; 24,66</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>-9,85; 26,2</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>-24,32; 20,01</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>-9,17; 59,18</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>-6,36</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>-5,75</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>-28,07%</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>-10,13</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>-2,91%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>-24,11%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>14,24%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>-38,48%</t>
         </is>
       </c>
     </row>
@@ -1641,22 +2412,42 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>-10,7; -1,98</t>
+          <t>-9,13; 8,42</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 4,01</t>
+          <t>-14,19; 2,16</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>-42,29; -9,48</t>
+          <t>-8,12; 12,73</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>-15,13; 20,03</t>
+          <t>-20,42; 2,65</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>-37,3; 54,0</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>-50,07; 12,92</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>-35,67; 94,18</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>-65,09; 14,79</t>
         </is>
       </c>
     </row>
@@ -1664,27 +2455,47 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>7,21</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>14,27%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1697,50 +2508,94 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>1,66; 12,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 7,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>3,37; 26,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 14,46</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>-2,56</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>-3,14</t>
+          <t>-3,24</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>-3,14%</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>-13,66%</t>
+          <t>-4,08</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>-15,48%</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>-15,63%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>6,89%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>-18,97%</t>
         </is>
       </c>
     </row>
@@ -1753,37 +2608,740 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 4,15</t>
+          <t>-12,35; 6,23</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 0,85</t>
+          <t>-13,26; 6,23</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>-19,1; 17,22</t>
+          <t>-11,34; 14,36</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>-26,44; 3,76</t>
+          <t>-18,11; 11,33</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="inlineStr">
+        <is>
+          <t>-57,05; 58,0</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>-49,38; 47,19</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>-43,84; 122,75</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>-63,61; 83,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>4,38</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>5,85</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>-7,31</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>13,27</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>7,43%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>9,7%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>-11,72%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>25,21%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>-9,08; 17,82</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>-5,1; 17,86</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>-23,83; 7,77</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>-5,9; 30,75</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>-13,93; 35,78</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>-7,42; 34,88</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>-34,16; 14,58</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>-9,54; 71,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>-1,83</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>-2,61</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>5,94</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>-9,19</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>-7,47%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>-13,73%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>33,39%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>-35,49%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>-13,5; 9,9</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>-12,54; 7,23</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>-6,43; 19,44</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>-23,6; 4,87</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>-42,28; 57,93</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>-50,84; 50,31</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>-28,3; 176,1</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>-71,64; 30,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>-7,05</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>-1,71</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>2,92</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>-30,29%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>0,2%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>-6,84%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>12,21%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>-11,96; -2,67</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>-3,9; 4,02</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>-8,74; 3,59</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>-3,31; 9,25</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>-45,23; -13,11</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>-15,71; 19,66</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>-28,12; 17,41</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>-12,61; 45,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>7,54</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>2,98</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>2,86</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>5,72</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>15,06%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>5,51%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>5,82%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>12,44%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>1,71; 12,71</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>-1,55; 7,95</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>-3,25; 9,74</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>-1,5; 13,4</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>3,01; 27,21</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>-2,68; 15,5</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>-5,97; 21,86</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>-3,32; 31,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>-0,49</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>-3,03</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>-1,16</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>-8,63</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>-1,84%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>-13,1%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>-4,46%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>-28,62%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>-5,57; 4,48</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>-6,97; 0,92</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>-7,51; 4,32</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>-15,92; -2,08</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>-18,73; 19,91</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>-27,71; 4,33</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>-24,16; 20,18</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>-45,99; -7,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_bre/P30-Edad-long_bre.xlsx
+++ b/data/long_bre/P30-Edad-long_bre.xlsx
@@ -624,7 +624,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -720,7 +720,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -816,7 +816,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -916,7 +916,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1012,7 +1012,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1108,7 +1108,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1304,7 +1304,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1400,7 +1400,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1596,7 +1596,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1692,7 +1692,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
@@ -1792,7 +1792,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -1888,7 +1888,7 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C43" s="5" t="n">
@@ -1984,7 +1984,7 @@
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C49" s="5" t="n">
@@ -2180,7 +2180,7 @@
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">
@@ -2276,7 +2276,7 @@
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C55" s="5" t="n">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C58" s="5" t="n">
@@ -2472,7 +2472,7 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C61" s="5" t="n">
@@ -2568,7 +2568,7 @@
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C64" s="5" t="n">
